--- a/datatables/datas/relationship.xlsx
+++ b/datatables/datas/relationship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\atom\datatables\datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAE624A-1E66-4A31-AD70-30152464013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25297572-8695-4B82-84A1-A2C07DEC9CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>relationship.RelationShipType</t>
+    <t>unit.RelationShipType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +472,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
